--- a/Data/WrongSiteWrongPatient.xlsx
+++ b/Data/WrongSiteWrongPatient.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://webmailbyui-my.sharepoint.com/personal/paulccannon_byui_edu/Documents/Math221D/Math221D_Course_Materials/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{1F534D29-A59B-424B-8A18-14EF3E34B435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C86E57C-5ED5-4CF9-871F-1B0FD389CD70}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{1F534D29-A59B-424B-8A18-14EF3E34B435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{879DA914-4D29-4341-8632-0EF5F6ECF6B7}"/>
   <bookViews>
     <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,10 +78,10 @@
     <t>Source:</t>
   </si>
   <si>
-    <t>Wrong _Site</t>
+    <t>Wrong_Patient</t>
   </si>
   <si>
-    <t>Wrong_Patient</t>
+    <t>Wrong_Site</t>
   </si>
 </sst>
 </file>
@@ -426,9 +426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C412"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -438,10 +436,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
         <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
